--- a/C-201 airflow analysis.xlsx
+++ b/C-201 airflow analysis.xlsx
@@ -2238,7 +2238,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/C-201 airflow analysis.xlsx
+++ b/C-201 airflow analysis.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Data!$A$1:$E$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'C-201'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1497,6 +1497,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1544,18 +1556,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1703,11 +1703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90314240"/>
-        <c:axId val="81948032"/>
+        <c:axId val="58004608"/>
+        <c:axId val="57902976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81948032"/>
+        <c:axId val="57902976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1790,12 +1790,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90314240"/>
+        <c:crossAx val="58004608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90314240"/>
+        <c:axId val="58004608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -1878,7 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81948032"/>
+        <c:crossAx val="57902976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1924,7 +1924,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294866" cy="6060201"/>
+    <xdr:ext cx="9285339" cy="6046839"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2237,8 +2237,8 @@
   <dimension ref="A1:AJ85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2283,51 +2283,51 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="117"/>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="164" t="s">
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="164" t="s">
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="166" t="s">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="172" t="s">
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="166"/>
+      <c r="AG1" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="167" t="s">
+      <c r="AH1" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="169" t="s">
+      <c r="AI1" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="155" t="s">
+      <c r="AJ1" s="159" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2335,46 +2335,46 @@
       <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="158"/>
+      <c r="C2" s="162"/>
       <c r="D2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="158" t="s">
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="156"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="160"/>
       <c r="R2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="S2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="163" t="s">
+      <c r="T2" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163" t="s">
+      <c r="U2" s="167"/>
+      <c r="V2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="163"/>
+      <c r="W2" s="167"/>
       <c r="X2" s="84" t="s">
         <v>55</v>
       </c>
@@ -2402,10 +2402,10 @@
       <c r="AF2" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="170"/>
-      <c r="AJ2" s="156"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="160"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
@@ -2513,7 +2513,7 @@
       <c r="AI3" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="157"/>
+      <c r="AJ3" s="161"/>
     </row>
     <row r="4" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2521,55 +2521,55 @@
       <c r="AF5" s="30"/>
     </row>
     <row r="6" spans="1:36" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="174"/>
-      <c r="U6" s="174"/>
-      <c r="V6" s="174"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="174"/>
-      <c r="Y6" s="174"/>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="174"/>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="174"/>
-      <c r="AD6" s="174"/>
-      <c r="AE6" s="174"/>
-      <c r="AF6" s="174"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="174"/>
-      <c r="AI6" s="174"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="V7" s="31"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -3607,13 +3607,13 @@
       <c r="AI21" s="103"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
       <c r="F22" s="36"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -4194,55 +4194,55 @@
       <c r="AI29" s="103"/>
     </row>
     <row r="31" spans="1:36" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="174"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="174"/>
-      <c r="Z31" s="174"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="174"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="174"/>
-      <c r="AF31" s="174"/>
-      <c r="AG31" s="174"/>
-      <c r="AH31" s="174"/>
-      <c r="AI31" s="174"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="158"/>
+      <c r="AB31" s="158"/>
+      <c r="AC31" s="158"/>
+      <c r="AD31" s="158"/>
+      <c r="AE31" s="158"/>
+      <c r="AF31" s="158"/>
+      <c r="AG31" s="158"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="158"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="V32" s="31"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A33" s="171" t="s">
+      <c r="A33" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -5549,13 +5549,13 @@
       <c r="AI49" s="103"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50" s="171" t="s">
+      <c r="A50" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="171"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="171"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
       <c r="F50" s="36"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -6133,52 +6133,52 @@
       </c>
     </row>
     <row r="59" spans="1:35" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="174" t="s">
+      <c r="A59" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="174"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="174"/>
-      <c r="R59" s="174"/>
-      <c r="S59" s="174"/>
-      <c r="T59" s="174"/>
-      <c r="U59" s="174"/>
-      <c r="V59" s="174"/>
-      <c r="W59" s="174"/>
-      <c r="X59" s="174"/>
-      <c r="Y59" s="174"/>
-      <c r="Z59" s="174"/>
-      <c r="AA59" s="174"/>
-      <c r="AB59" s="174"/>
-      <c r="AC59" s="174"/>
-      <c r="AD59" s="174"/>
-      <c r="AE59" s="174"/>
-      <c r="AF59" s="174"/>
-      <c r="AG59" s="174"/>
-      <c r="AH59" s="174"/>
-      <c r="AI59" s="174"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="158"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
+      <c r="P59" s="158"/>
+      <c r="Q59" s="158"/>
+      <c r="R59" s="158"/>
+      <c r="S59" s="158"/>
+      <c r="T59" s="158"/>
+      <c r="U59" s="158"/>
+      <c r="V59" s="158"/>
+      <c r="W59" s="158"/>
+      <c r="X59" s="158"/>
+      <c r="Y59" s="158"/>
+      <c r="Z59" s="158"/>
+      <c r="AA59" s="158"/>
+      <c r="AB59" s="158"/>
+      <c r="AC59" s="158"/>
+      <c r="AD59" s="158"/>
+      <c r="AE59" s="158"/>
+      <c r="AF59" s="158"/>
+      <c r="AG59" s="158"/>
+      <c r="AH59" s="158"/>
+      <c r="AI59" s="158"/>
     </row>
     <row r="61" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="171" t="s">
+      <c r="A61" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="171"/>
-      <c r="C61" s="171"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -7349,13 +7349,13 @@
       <c r="AI76" s="107"/>
     </row>
     <row r="77" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="171" t="s">
+      <c r="A77" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
-      <c r="E77" s="171"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="155"/>
+      <c r="D77" s="155"/>
+      <c r="E77" s="155"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -7960,16 +7960,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A6:AI6"/>
-    <mergeCell ref="A59:AI59"/>
-    <mergeCell ref="A31:AI31"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A50:E50"/>
     <mergeCell ref="AJ1:AJ3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:K2"/>
@@ -7982,6 +7972,16 @@
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A6:AI6"/>
+    <mergeCell ref="A59:AI59"/>
+    <mergeCell ref="A31:AI31"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>

--- a/C-201 airflow analysis.xlsx
+++ b/C-201 airflow analysis.xlsx
@@ -2238,7 +2238,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+      <selection pane="bottomLeft" activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4071,6 +4071,10 @@
         <f t="shared" si="6"/>
         <v>0.34385060405218726</v>
       </c>
+      <c r="AJ27" s="1">
+        <f>-28.8*98.06</f>
+        <v>-2824.1280000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
@@ -4188,6 +4192,10 @@
       <c r="AI28" s="103">
         <f t="shared" si="6"/>
         <v>0.35680588829191545</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f>101000+AJ27</f>
+        <v>98175.872000000003</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
